--- a/data/trans_bre/P14_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-25,06%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>-61,98%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,18</t>
+          <t>-10,4; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,61</t>
+          <t>-21,72; 3,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,25%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,2%</t>
+          <t>-24,78%</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 3,25</t>
+          <t>-9,11; 6,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 2,72</t>
+          <t>-14,43; 9,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-87,2; 82,07</t>
+          <t>-84,12; 459,41</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,61</t>
+          <t>-5,92; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 8,63</t>
+          <t>-9,56; 11,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 338,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 141,68</t>
+          <t>-52,54; 223,99</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>-11,08%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 2,69</t>
+          <t>-7,06; 6,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 4,61</t>
+          <t>-10,85; 6,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,37; 84,94</t>
+          <t>-81,62; 506,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 64,71</t>
+          <t>-67,68; 149,98</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>-44,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 4,84</t>
+          <t>-10,86; 4,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 7,01</t>
+          <t>-9,86; 13,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-78,61; 193,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 131,21</t>
+          <t>-70,05; 217,6</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>121,94%</t>
+          <t>-17,93%</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,4</t>
+          <t>-7,77; 4,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>-18,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>-12,62%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,81</t>
+          <t>-3,44; 1,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,94</t>
+          <t>-5,97; 2,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-62,21; 33,07</t>
+          <t>-61,58; 74,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 30,57</t>
+          <t>-48,69; 36,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,115 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-32,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-61,98%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.013194620856474</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.461161234233092</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.3672060111503833</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.5331742708611109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,4; 4,27</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 3,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.603056157184547</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.57433567681678</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.521723490424129</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.290548829144975</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-12,91%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-24,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,11; 6,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 9,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-84,12; 459,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3925424671635449</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.032683566015297</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1128807922836891</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.3161485527466491</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,41%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.31114368891866</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.4797230826118</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-0.8591428027594838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 5,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 11,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-52,54; 223,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.128459124126222</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.884072073908451</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>3.570501323113298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +704,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,08%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.6716051381106064</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.245092882551298</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.2326888721039975</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1107081604866705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 6,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,85; 6,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-81,62; 506,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-67,68; 149,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.276779281318261</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.970621733117579</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.5211768986345826</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.464215429616342</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.90995530940238</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>2.34709645511139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-44,04%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 4,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; 13,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-70,05; 217,6</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.430043619291369</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.344462879546961</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.08329317746060752</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1331574915187664</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-17,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.456560760714491</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.05599414687808</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.832097016777759</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.6904776270885274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 4,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.454699537065715</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.634494216097127</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>4.355870595896808</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.393004059120346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +828,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-18,31%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-12,62%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.293632121218638</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.217990000495967</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.4757042512656871</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.2204574420826996</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 1,9</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 2,69</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-61,58; 74,7</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-48,69; 36,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.16069059084004</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.763372414836617</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.6695629784139402</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.16195224356698</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.05339682056551</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>2.5857108224648</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.5910595669288986</v>
+      </c>
+      <c r="E19" s="6" t="inlineStr"/>
+      <c r="F19" s="6" t="n">
+        <v>-0.2409630525947057</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="n">
+        <v>-7.852100944140168</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="n">
+        <v>3.828694196138842</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.7304924594072812</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.9630574769405389</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.1918992617806976</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.1052241311368423</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.408367017917442</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.419349164105265</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.6137661951616048</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.4711170013374498</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.793516021054747</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.095140383832382</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7031154619532699</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.4114440990558015</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1000,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
